--- a/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Samegrelo-Zemo Svaneti/Senaki Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Samegrelo-Zemo Svaneti/Senaki Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of hotels and hotel-type establishments and their total area(including local units)\Samegreli-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2.2 Number of hotels and hotel-type establishments and their total area(including local units)\Samegreli-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,10 +29,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Area of sq.m.</t>
+    <t>Number of hotels and hotel-type establishments and their total area in Senaki Municipality (including local units)</t>
   </si>
   <si>
-    <t>Number of hotels and hotel-type establishments and their total area in Senaki Municipality (including local units)</t>
+    <t>Area, sq.m.</t>
   </si>
 </sst>
 </file>
@@ -183,11 +183,11 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,7 +473,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,21 +484,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
@@ -584,42 +584,42 @@
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
         <v>1466</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>938</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>1888</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>2401</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>3844</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>4376</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>2933</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>3043</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>2643</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>2868</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>1200</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>4005</v>
       </c>
       <c r="N4" s="7"/>

--- a/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Samegrelo-Zemo Svaneti/Senaki Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Samegrelo-Zemo Svaneti/Senaki Municipality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\2.2 Number of hotels and hotel-type establishments and their total area(including local units)\Samegreli-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of hotels and hotel-type establishments and their total area(including local units)\Samegreli-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607D11F-2724-4E01-828D-28A626AEA65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="10515"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senaki" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -92,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -142,36 +144,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -180,19 +182,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,165 +474,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6">
         <v>2010</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2011</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>2012</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>2013</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>2014</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>2015</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>2016</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>2017</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>2018</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>2019</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <v>2020</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <v>2021</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="O2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>5</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:16" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>1466</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>938</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>1888</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>2401</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>3844</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>4376</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>2933</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>3043</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>2643</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>2868</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>1200</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>4005</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="10">
+        <v>5118</v>
+      </c>
+      <c r="O4" s="10">
+        <v>6347.7000007629395</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Samegrelo-Zemo Svaneti/Senaki Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of hotels and hotel-type establishments and their total area/Samegrelo-Zemo Svaneti/Senaki Municipality.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of hotels and hotel-type establishments and their total area(including local units)\Samegreli-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\2.2 Number of hotels and hotel-type establishments and their total area(including local units)\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607D11F-2724-4E01-828D-28A626AEA65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD306021-6BE2-4CA7-92B9-0B5585177FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Senaki" sheetId="1" r:id="rId1"/>
+    <sheet name="Senaki" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t>Quantity</t>
+    <t>...</t>
   </si>
   <si>
-    <t>Number of hotels and hotel-type establishments and their total area in Senaki Municipality (including local units)</t>
+    <t>* Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches).</t>
   </si>
   <si>
-    <t>Area, sq.m.</t>
+    <t>(Declared data)</t>
+  </si>
+  <si>
+    <t>Number and total floorage of hotels and hotel-type enterprises* in Senaki municipality</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total floorage, thousand sq.m.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "…" - data is confidential or unavailable.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -41,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
-    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,10 +91,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,25 +110,25 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -100,6 +137,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -118,37 +184,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -158,42 +195,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,9 +302,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -293,9 +337,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -475,176 +519,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="10.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
+    <col min="2" max="13" width="8.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="N5" s="11">
+        <v>5.1180000000000003</v>
+      </c>
+      <c r="O5" s="11">
+        <v>6.3476999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2012</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2013</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2014</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2015</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2016</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2017</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="L2" s="6">
-        <v>2020</v>
-      </c>
-      <c r="M2" s="6">
-        <v>2021</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2022</v>
-      </c>
-      <c r="O2" s="6">
-        <v>2023</v>
-      </c>
-      <c r="P2" s="12"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3">
-        <v>5</v>
-      </c>
-      <c r="O3" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1466</v>
-      </c>
-      <c r="C4" s="10">
-        <v>938</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1888</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2401</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3844</v>
-      </c>
-      <c r="G4" s="10">
-        <v>4376</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2933</v>
-      </c>
-      <c r="I4" s="10">
-        <v>3043</v>
-      </c>
-      <c r="J4" s="10">
-        <v>2643</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2868</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1200</v>
-      </c>
-      <c r="M4" s="10">
-        <v>4005</v>
-      </c>
-      <c r="N4" s="10">
-        <v>5118</v>
-      </c>
-      <c r="O4" s="10">
-        <v>6347.7000007629395</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>